--- a/CamperVan.xlsx
+++ b/CamperVan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/Campervan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADBA9B3-011F-BC46-98FF-5BE11CA5FA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48F4A77-2840-3949-8B81-A8B30A820F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="6" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SofaBed" sheetId="4" r:id="rId4"/>
     <sheet name="Ply" sheetId="6" r:id="rId5"/>
     <sheet name="Electrical" sheetId="7" r:id="rId6"/>
+    <sheet name="Circuit" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="265">
   <si>
     <t>Item</t>
   </si>
@@ -827,6 +828,39 @@
   <si>
     <t>Warranty</t>
   </si>
+  <si>
+    <t>Low Pass Filter Calculations</t>
+  </si>
+  <si>
+    <t>Butter Worth 2 Pole</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Voltage Divider Calculations</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
 </sst>
 </file>
 
@@ -836,7 +870,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -917,8 +951,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +1007,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -997,7 +1045,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1039,10 +1087,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1363,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4DC715-C7C4-1749-ABD4-2BCA46FA3CE6}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1458,7 +1509,7 @@
         <v>1609.09</v>
       </c>
       <c r="H6">
-        <f>F6*G6</f>
+        <f t="shared" ref="H6:H11" si="0">F6*G6</f>
         <v>1609.09</v>
       </c>
       <c r="I6" t="s">
@@ -1479,7 +1530,7 @@
         <v>4550</v>
       </c>
       <c r="H7">
-        <f>F7*G7</f>
+        <f t="shared" si="0"/>
         <v>4550</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1497,7 +1548,7 @@
         <v>339</v>
       </c>
       <c r="H8">
-        <f>F8*G8</f>
+        <f t="shared" si="0"/>
         <v>339</v>
       </c>
       <c r="I8" s="1"/>
@@ -1519,7 +1570,7 @@
         <v>465</v>
       </c>
       <c r="H9">
-        <f>F9*G9</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1537,7 +1588,7 @@
         <v>155</v>
       </c>
       <c r="H10">
-        <f>F10*G10</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
@@ -1555,7 +1606,7 @@
         <v>1100</v>
       </c>
       <c r="H11">
-        <f>F11*G11</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
     </row>
@@ -1632,7 +1683,7 @@
         <v>1809</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="0">F15*G15</f>
+        <f t="shared" ref="H15" si="1">F15*G15</f>
         <v>0</v>
       </c>
     </row>
@@ -1680,7 +1731,7 @@
         <v>275</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="1">F17*G17</f>
+        <f t="shared" ref="H17:H18" si="2">F17*G17</f>
         <v>275</v>
       </c>
       <c r="I17" t="s">
@@ -1701,7 +1752,7 @@
         <v>352</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1790,7 +1841,7 @@
         <v>273.41000000000003</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H29" si="2">F23*G23</f>
+        <f t="shared" ref="H23:H29" si="3">F23*G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1802,7 +1853,7 @@
         <v>61</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1823,7 +1874,7 @@
         <v>625</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>625</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1861,7 +1912,7 @@
         <v>116.81</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116.81</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1885,7 +1936,7 @@
         <v>317.3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>317.3</v>
       </c>
     </row>
@@ -1923,7 +1974,7 @@
         <v>958.99</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H55" si="3">F31*G31</f>
+        <f t="shared" ref="H31:H55" si="4">F31*G31</f>
         <v>1917.98</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -1949,7 +2000,7 @@
         <v>334.99</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>334.99</v>
       </c>
       <c r="I32" s="1"/>
@@ -1969,7 +2020,7 @@
         <v>649.99</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>649.99</v>
       </c>
       <c r="I33" s="1"/>
@@ -1989,7 +2040,7 @@
         <v>99.08</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.08</v>
       </c>
       <c r="I34" s="1"/>
@@ -2125,7 +2176,7 @@
         <v>425</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41" si="4">F41*G41</f>
+        <f t="shared" ref="H41" si="5">F41*G41</f>
         <v>425</v>
       </c>
     </row>
@@ -2147,7 +2198,7 @@
         <v>263</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
@@ -2162,7 +2213,7 @@
         <v>167.63</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.63</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -2197,7 +2248,7 @@
         <v>159</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45" si="5">F45*G45</f>
+        <f t="shared" ref="H45" si="6">F45*G45</f>
         <v>159</v>
       </c>
     </row>
@@ -2315,7 +2366,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2455,7 @@
         <v>294.7</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H64" si="6">F62*G62</f>
+        <f t="shared" ref="H62:H64" si="7">F62*G62</f>
         <v>294.7</v>
       </c>
     </row>
@@ -2422,7 +2473,7 @@
         <v>44.1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44.1</v>
       </c>
     </row>
@@ -2437,7 +2488,7 @@
         <v>36.15</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.15</v>
       </c>
     </row>
@@ -2481,7 +2532,7 @@
         <v>729.7</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H69" si="7">F68*G68</f>
+        <f t="shared" ref="H68:H69" si="8">F68*G68</f>
         <v>729.7</v>
       </c>
     </row>
@@ -2499,7 +2550,7 @@
         <v>249</v>
       </c>
       <c r="H69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
     </row>
@@ -2535,7 +2586,7 @@
         <v>59</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71" si="8">F71*G71</f>
+        <f t="shared" ref="H71" si="9">F71*G71</f>
         <v>59</v>
       </c>
     </row>
@@ -2695,7 +2746,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>SUM(E2:E6)</f>
         <v>764.93000000000006</v>
       </c>
@@ -3959,7 +4010,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="11" t="s">
         <v>233</v>
       </c>
       <c r="B47" s="11">
@@ -4021,7 +4072,7 @@
         <f>C51/A51</f>
         <v>4</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="36">
         <f>A51/A53</f>
         <v>0.29411764705882354</v>
       </c>
@@ -4029,7 +4080,7 @@
         <f>A51*F50</f>
         <v>957</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="36">
         <f>F51/C51</f>
         <v>0.79749999999999999</v>
       </c>
@@ -4064,7 +4115,7 @@
         <f>C52/A52</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="36">
         <f>A52/A53</f>
         <v>0.70588235294117652</v>
       </c>
@@ -4072,11 +4123,11 @@
         <f>A52*F50</f>
         <v>2296.8000000000002</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="36">
         <f>F52/C52</f>
         <v>0.95700000000000007</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="37">
         <f>C52-F52</f>
         <v>103.19999999999982</v>
       </c>
@@ -4112,4 +4163,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C818F5A-BC8B-F640-840C-9460544731C9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1E-8</v>
+      </c>
+      <c r="D5" s="38">
+        <f>1/(2*PI()*C5*B5)</f>
+        <v>159154.94309189534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="38">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6:D7" si="0">1/(2*PI()*C6*B6)</f>
+        <v>159154.94309189534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1E-8</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="0"/>
+        <v>15915494.309189534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3.3</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f>(A12-B12)/B12*C12</f>
+        <v>354.54545454545456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f>(A13-B13)/B13*C13</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CamperVan.xlsx
+++ b/CamperVan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/Campervan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48F4A77-2840-3949-8B81-A8B30A820F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FBC8C-AA4E-A84A-A1FF-3A43CF3966A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="6" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="8" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Ply" sheetId="6" r:id="rId5"/>
     <sheet name="Electrical" sheetId="7" r:id="rId6"/>
     <sheet name="Circuit" sheetId="9" r:id="rId7"/>
+    <sheet name="Resistor" sheetId="11" r:id="rId8"/>
+    <sheet name="Cable" sheetId="12" r:id="rId9"/>
+    <sheet name="Tanks" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="307">
   <si>
     <t>Item</t>
   </si>
@@ -861,6 +864,132 @@
   <si>
     <t>R1</t>
   </si>
+  <si>
+    <t>Voltage Regulator Calculations</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R (k)</t>
+  </si>
+  <si>
+    <t>154k</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>Analogue Optocoupler Calculations - IL300</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Ip1</t>
+  </si>
+  <si>
+    <t>Ip1 = K1*If</t>
+  </si>
+  <si>
+    <t>Vin/Ip1</t>
+  </si>
+  <si>
+    <t>R1*Vout/Vin/K3</t>
+  </si>
+  <si>
+    <t>E96</t>
+  </si>
+  <si>
+    <t>Bin D</t>
+  </si>
+  <si>
+    <t>Bin E</t>
+  </si>
+  <si>
+    <t>Bin F</t>
+  </si>
+  <si>
+    <t>Bin G</t>
+  </si>
+  <si>
+    <t>K3min</t>
+  </si>
+  <si>
+    <t>K3max</t>
+  </si>
+  <si>
+    <t>K3*R2/R1*Vin</t>
+  </si>
+  <si>
+    <t>Digital Out Optocoupler Calculations</t>
+  </si>
+  <si>
+    <t>Digital In Optocoupler Calculations</t>
+  </si>
+  <si>
+    <t>Grey Water</t>
+  </si>
+  <si>
+    <t>Relay Hold Resistor Calculations</t>
+  </si>
+  <si>
+    <t>Vhold</t>
+  </si>
+  <si>
+    <t>Rhold</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Dual Relay Hold Resistor Calculations</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>2/0</t>
+  </si>
+  <si>
+    <t>Voltage Drop</t>
+  </si>
 </sst>
 </file>
 
@@ -870,7 +999,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -959,8 +1088,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF636363"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="MJXc-TeX-main-R"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,8 +1165,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1037,15 +1194,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1094,15 +1292,91 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="48" fontId="10" fillId="8" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="48" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{123B9C09-DBF4-C94E-B00F-92A47902B458}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1418,7 +1692,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1427,7 +1701,7 @@
     <col min="9" max="9" width="104.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1735,7 @@
         <v>83823.19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1744,7 @@
         <v>29323.190000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1756,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1772,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1516,7 +1790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -1537,7 +1811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -1553,7 +1827,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1577,7 +1851,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -1592,7 +1866,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +1884,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -1626,7 +1900,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1921,7 @@
         <v>11450</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="29">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1937,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +2012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -1759,7 +2033,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +2047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1787,7 +2061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +2078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1821,7 +2095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1848,7 +2122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1860,7 +2134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -1881,7 +2155,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -1890,7 +2164,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>244</v>
       </c>
@@ -1898,7 +2172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -1919,7 +2193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +2214,7 @@
         <v>317.3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="29">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1956,7 +2230,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>76</v>
       </c>
@@ -1985,7 +2259,7 @@
         <v>9271.34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>76</v>
       </c>
@@ -2005,7 +2279,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="B33" t="s">
         <v>76</v>
       </c>
@@ -2025,7 +2299,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="B34" t="s">
         <v>76</v>
       </c>
@@ -2049,7 +2323,7 @@
         <v>20592.832000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +2346,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -2093,7 +2367,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -2109,7 +2383,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2125,7 +2399,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -2143,7 +2417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="29">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -2159,7 +2433,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2454,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +2476,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2494,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2228,7 +2502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2526,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="29">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2542,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2563,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2303,25 +2577,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>175</v>
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>176</v>
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>177</v>
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -2342,7 +2616,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -2358,19 +2632,19 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>225</v>
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="H55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="29">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2660,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2397,17 +2671,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="29">
       <c r="A60" s="2" t="s">
         <v>212</v>
       </c>
@@ -2423,7 +2697,7 @@
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -2441,7 +2715,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -2459,7 +2733,7 @@
         <v>294.7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -2477,7 +2751,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -2492,17 +2766,17 @@
         <v>36.15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="B65" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="29">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2792,7 @@
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -2536,7 +2810,7 @@
         <v>729.7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -2554,7 +2828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -2572,7 +2846,7 @@
         <v>64.94</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -2590,7 +2864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="F72">
         <v>1</v>
       </c>
@@ -2602,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="F73">
         <v>1</v>
       </c>
@@ -2632,6 +2906,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4D8B5-7854-C642-9B44-BDEE7777C2BE}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="23">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2">
+        <f>(950*240 - 180*50/2 - 55*130 - 130*90)*220/1000/1000</f>
+        <v>45.023000000000003</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" ht="20">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="20">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="20">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="20">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="20">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" ht="20">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" ht="20">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="20">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="20">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="20">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" ht="20">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="20">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="20">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" ht="20">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+    </row>
+    <row r="17" spans="1:3" ht="20">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="1:3" ht="20">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="1:3" ht="20">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" ht="20">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="1:3" ht="20">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+    </row>
+    <row r="23" spans="1:3" ht="20">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+    </row>
+    <row r="24" spans="1:3" ht="20">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+    </row>
+    <row r="25" spans="1:3" ht="20">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92100D95-D95B-A341-A18C-0ED78105334C}">
   <dimension ref="A1:G8"/>
@@ -2640,13 +3059,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +3085,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -2683,7 +3102,7 @@
         <v>379.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -2700,7 +3119,7 @@
         <v>304.99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -2715,7 +3134,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -2730,7 +3149,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -2745,7 +3164,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="E7" s="35">
         <f>SUM(E2:E6)</f>
         <v>764.93000000000006</v>
@@ -2754,7 +3173,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -2787,12 +3206,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2803,7 +3222,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +3233,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2827,7 +3246,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2838,7 +3257,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -2852,7 +3271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2871,7 +3290,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2882,7 +3301,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2890,7 +3309,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2911,14 +3330,14 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2938,7 +3357,7 @@
         <v>553.5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2958,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="G3" t="s">
         <v>105</v>
       </c>
@@ -2972,7 +3391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="G4" t="s">
         <v>109</v>
       </c>
@@ -2986,7 +3405,7 @@
         <v>28.485999999999947</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -3001,7 +3420,7 @@
         <v>131.63200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>97</v>
       </c>
@@ -3031,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -3040,7 +3459,7 @@
         <v>0.24192189559966773</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>91</v>
       </c>
@@ -3060,7 +3479,7 @@
         <v>553.49999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="G9" t="s">
         <v>107</v>
       </c>
@@ -3069,14 +3488,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3087,7 +3506,7 @@
         <v>513.57118938116514</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -3095,7 +3514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -3103,7 +3522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -3123,7 +3542,7 @@
         <v>553.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>88</v>
       </c>
@@ -3147,7 +3566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" t="s">
         <v>98</v>
       </c>
@@ -3168,7 +3587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>85</v>
       </c>
@@ -3177,7 +3596,7 @@
         <v>186.42881061883486</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="G18" t="s">
         <v>106</v>
       </c>
@@ -3199,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -3222,7 +3641,7 @@
         <v>40.157999999999987</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>96</v>
       </c>
@@ -3235,7 +3654,7 @@
         <v>149.84467045097091</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>100</v>
       </c>
@@ -3263,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -3272,7 +3691,7 @@
         <v>622.57118938116514</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>92</v>
       </c>
@@ -3281,7 +3700,7 @@
         <v>149.84467045097091</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>87</v>
       </c>
@@ -3294,7 +3713,7 @@
         <v>619.39275930167901</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>93</v>
       </c>
@@ -3311,7 +3730,7 @@
         <v>597.60724069832077</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -3328,7 +3747,7 @@
         <v>1216.9999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>94</v>
       </c>
@@ -3337,7 +3756,7 @@
         <v>1217.4288106188349</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -3346,7 +3765,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>78</v>
       </c>
@@ -3369,7 +3788,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>89</v>
       </c>
@@ -3392,7 +3811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>101</v>
       </c>
@@ -3415,7 +3834,7 @@
         <v>513.5</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -3438,7 +3857,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="E47" t="s">
         <v>186</v>
       </c>
@@ -3457,22 +3876,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3480,7 +3899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3491,7 +3910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3502,7 +3921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3526,7 +3945,7 @@
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -3538,7 +3957,7 @@
     <col min="8" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="32" t="s">
         <v>227</v>
       </c>
@@ -3564,7 +3983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
         <v>159</v>
       </c>
@@ -3601,7 +4020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="28" t="s">
         <v>228</v>
       </c>
@@ -3615,7 +4034,7 @@
       <c r="G3" s="29"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="28" t="s">
         <v>229</v>
       </c>
@@ -3629,7 +4048,7 @@
       <c r="G4" s="29"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="28" t="s">
         <v>230</v>
       </c>
@@ -3657,7 +4076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
         <v>155</v>
       </c>
@@ -3686,7 +4105,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>153</v>
       </c>
@@ -3715,7 +4134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="28" t="s">
         <v>151</v>
       </c>
@@ -3744,7 +4163,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="28" t="s">
         <v>149</v>
       </c>
@@ -3769,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="28" t="s">
         <v>148</v>
       </c>
@@ -3797,7 +4216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="30"/>
@@ -3815,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3824,7 +4243,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="E13" s="23" t="s">
         <v>6</v>
       </c>
@@ -3837,7 +4256,7 @@
         <v>131.88333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="M14" s="11" t="s">
         <v>146</v>
       </c>
@@ -3845,7 +4264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
         <v>144</v>
       </c>
@@ -3873,7 +4292,7 @@
         <v>0.53077214709970932</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="L16" s="11" t="s">
         <v>139</v>
       </c>
@@ -3885,7 +4304,7 @@
         <v>2.4263869581701001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
         <v>141</v>
       </c>
@@ -3900,7 +4319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="C18" s="11" t="s">
         <v>139</v>
       </c>
@@ -3919,89 +4338,89 @@
         <v>0.73556594633303851</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="F19" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="C27" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="C29" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="D30" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="D31" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="D34" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="D35" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="D36" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="27" t="s">
         <v>232</v>
       </c>
@@ -4009,7 +4428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
         <v>233</v>
       </c>
@@ -4017,12 +4436,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="F49" s="11" t="s">
         <v>249</v>
       </c>
@@ -4030,7 +4449,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="11" t="s">
         <v>164</v>
       </c>
@@ -4057,7 +4476,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="11">
         <f>300</f>
         <v>300</v>
@@ -4099,7 +4518,7 @@
         <v>2.3541666666666665</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="11">
         <f>720</f>
         <v>720</v>
@@ -4142,7 +4561,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="11">
         <f>A51+A52</f>
         <v>1020</v>
@@ -4167,42 +4586,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C818F5A-BC8B-F640-840C-9460544731C9}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="39" t="s">
         <v>254</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="20">
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="35" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1.5860000000000001</v>
       </c>
@@ -4216,8 +4650,15 @@
         <f>1/(2*PI()*C5*B5)</f>
         <v>159154.94309189534</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" s="8">
+        <f>D5/1000</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1.5860000000000001</v>
       </c>
@@ -4231,8 +4672,15 @@
         <f t="shared" ref="D6:D7" si="0">1/(2*PI()*C6*B6)</f>
         <v>159154.94309189534</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <f>D6/1000</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1.5860000000000001</v>
       </c>
@@ -4240,14 +4688,24 @@
         <v>1</v>
       </c>
       <c r="C7" s="38">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D7" s="38">
         <f t="shared" si="0"/>
-        <v>15915494.309189534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159154.94309189534</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="8">
+        <f>D7/1000</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="41" t="s">
         <v>260</v>
       </c>
@@ -4255,21 +4713,21 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>15</v>
       </c>
@@ -4283,8 +4741,11 @@
         <f>(A12-B12)/B12*C12</f>
         <v>354.54545454545456</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>15</v>
       </c>
@@ -4298,8 +4759,2144 @@
         <f>(A13-B13)/B13*C13</f>
         <v>200</v>
       </c>
+      <c r="F13" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C18" s="42">
+        <f>(A18-B18)*D18/B18</f>
+        <v>71.632653061224488</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f>B18*(1+F18/G18)</f>
+        <v>10.412500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C19" s="42">
+        <f>(A19-B19)*D19/B19</f>
+        <v>33.667346938775509</v>
+      </c>
+      <c r="D19">
+        <v>4.7</v>
+      </c>
+      <c r="F19" s="7">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <f>B19*(1+F19/G19)</f>
+        <v>9.5549999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" t="s">
+        <v>295</v>
+      </c>
+      <c r="J22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>14.4</v>
+      </c>
+      <c r="B23">
+        <v>3.5</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8">
+        <f>(A23-B23)/B23*C23</f>
+        <v>112.11428571428571</v>
+      </c>
+      <c r="F23">
+        <v>14.4</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>82</v>
+      </c>
+      <c r="I23" s="9">
+        <f>F23*(1-(H23/(H23+G23)))</f>
+        <v>4.3932203389830509</v>
+      </c>
+      <c r="J23" s="9">
+        <f>F23*F23/(G23+H23)</f>
+        <v>1.7572881355932204</v>
+      </c>
+      <c r="K23" s="44">
+        <f>F23/(G23+H23)</f>
+        <v>0.12203389830508475</v>
+      </c>
+      <c r="L23" s="9">
+        <f>K23*K23*H23</f>
+        <v>1.2211663315139329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>12.8</v>
+      </c>
+      <c r="B24">
+        <v>3.5</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8">
+        <f>(A24-B24)/B24*C24</f>
+        <v>95.657142857142873</v>
+      </c>
+      <c r="F24" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="G24" s="7">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>100</v>
+      </c>
+      <c r="I24" s="10">
+        <f>F24*(1-(H24/(H24+G24)))</f>
+        <v>3.3882352941176466</v>
+      </c>
+      <c r="J24" s="10">
+        <f>F24*F24/(G24+H24)</f>
+        <v>1.2047058823529415</v>
+      </c>
+      <c r="K24" s="44">
+        <f t="shared" ref="K24:K29" si="1">F24/(G24+H24)</f>
+        <v>9.4117647058823528E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <f>K24*K24*H24</f>
+        <v>0.88581314878892725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>3.5</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8">
+        <f>(A25-B25)/B25*C25</f>
+        <v>66.857142857142861</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25" s="9">
+        <f>F25*(1-(H25/(H25+G25)))</f>
+        <v>2.6470588235294112</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25" si="2">F25*F25/(G25+H25)</f>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25:L29" si="3">K25*K25*H25</f>
+        <v>0.54065743944636679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="K26" s="44"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27">
+        <v>14.4</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9">
+        <f>F27*(1-(H27/(H27+G27)))</f>
+        <v>3.6654545454545451</v>
+      </c>
+      <c r="J27" s="9">
+        <f>F27*F27/(G27+H27)</f>
+        <v>1.8850909090909092</v>
+      </c>
+      <c r="K27" s="44">
+        <f t="shared" si="1"/>
+        <v>0.13090909090909092</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4052495867768597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="G28" s="7">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7">
+        <v>82</v>
+      </c>
+      <c r="I28" s="10">
+        <f>F28*(1-(H28/(H28+G28)))</f>
+        <v>3.2581818181818178</v>
+      </c>
+      <c r="J28" s="10">
+        <f>F28*F28/(G28+H28)</f>
+        <v>1.4894545454545458</v>
+      </c>
+      <c r="K28" s="44">
+        <f t="shared" si="1"/>
+        <v>0.11636363636363636</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1103206611570247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>82</v>
+      </c>
+      <c r="I29" s="9">
+        <f>F29*(1-(H29/(H29+G29)))</f>
+        <v>2.545454545454545</v>
+      </c>
+      <c r="J29" s="9">
+        <f>F29*F29/(G29+H29)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K29" s="44">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.6776859504132231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>14.4</v>
+      </c>
+      <c r="B33">
+        <v>3.5</v>
+      </c>
+      <c r="C33">
+        <f>36/2</f>
+        <v>18</v>
+      </c>
+      <c r="D33" s="8">
+        <f>(A33-B33)/B33*C33</f>
+        <v>56.057142857142857</v>
+      </c>
+      <c r="F33">
+        <v>14.4</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>41</v>
+      </c>
+      <c r="I33" s="9">
+        <f>F33*(1-(H33/(H33+G33)))</f>
+        <v>4.3932203389830509</v>
+      </c>
+      <c r="J33" s="9">
+        <f>F33*F33/(G33+H33)</f>
+        <v>3.5145762711864408</v>
+      </c>
+      <c r="K33" s="44">
+        <f>F33/(G33+H33)</f>
+        <v>0.2440677966101695</v>
+      </c>
+      <c r="L33" s="9">
+        <f>K33*K33*H33</f>
+        <v>2.4423326630278659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>12.8</v>
+      </c>
+      <c r="B34">
+        <v>3.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C35" si="4">36/2</f>
+        <v>18</v>
+      </c>
+      <c r="D34" s="8">
+        <f>(A34-B34)/B34*C34</f>
+        <v>47.828571428571436</v>
+      </c>
+      <c r="F34" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="G34" s="7">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7">
+        <v>41</v>
+      </c>
+      <c r="I34" s="10">
+        <f>F34*(1-(H34/(H34+G34)))</f>
+        <v>3.9050847457627116</v>
+      </c>
+      <c r="J34" s="10">
+        <f>F34*F34/(G34+H34)</f>
+        <v>2.7769491525423735</v>
+      </c>
+      <c r="K34" s="44">
+        <f t="shared" ref="K34:K35" si="5">F34/(G34+H34)</f>
+        <v>0.2169491525423729</v>
+      </c>
+      <c r="L34" s="9">
+        <f>K34*K34*H34</f>
+        <v>1.9297443263430052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>3.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D35" s="8">
+        <f>(A35-B35)/B35*C35</f>
+        <v>33.428571428571431</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>41</v>
+      </c>
+      <c r="I35" s="9">
+        <f>F35*(1-(H35/(H35+G35)))</f>
+        <v>3.0508474576271185</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" ref="J35" si="6">F35*F35/(G35+H35)</f>
+        <v>1.6949152542372881</v>
+      </c>
+      <c r="K35" s="44">
+        <f t="shared" si="5"/>
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" ref="L35" si="7">K35*K35*H35</f>
+        <v>1.1778224648089628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="K36" s="44"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="F37">
+        <v>14.4</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>41</v>
+      </c>
+      <c r="I37" s="9">
+        <f>F37*(1-(H37/(H37+G37)))</f>
+        <v>3.6654545454545451</v>
+      </c>
+      <c r="J37" s="9">
+        <f>F37*F37/(G37+H37)</f>
+        <v>3.7701818181818183</v>
+      </c>
+      <c r="K37" s="44">
+        <f t="shared" ref="K37:K39" si="8">F37/(G37+H37)</f>
+        <v>0.26181818181818184</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:L39" si="9">K37*K37*H37</f>
+        <v>2.8104991735537195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="F38" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="G38" s="7">
+        <v>14</v>
+      </c>
+      <c r="H38" s="7">
+        <v>41</v>
+      </c>
+      <c r="I38" s="10">
+        <f>F38*(1-(H38/(H38+G38)))</f>
+        <v>3.2581818181818178</v>
+      </c>
+      <c r="J38" s="10">
+        <f>F38*F38/(G38+H38)</f>
+        <v>2.9789090909090916</v>
+      </c>
+      <c r="K38" s="44">
+        <f t="shared" si="8"/>
+        <v>0.23272727272727273</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="9"/>
+        <v>2.2206413223140493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>41</v>
+      </c>
+      <c r="I39" s="9">
+        <f>F39*(1-(H39/(H39+G39)))</f>
+        <v>2.545454545454545</v>
+      </c>
+      <c r="J39" s="9">
+        <f>F39*F39/(G39+H39)</f>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="K39" s="44">
+        <f t="shared" si="8"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="9"/>
+        <v>1.3553719008264462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="B43">
+        <v>1.4</v>
+      </c>
+      <c r="C43">
+        <v>3.3</v>
+      </c>
+      <c r="D43" s="42">
+        <f>(C43-B43)/A43</f>
+        <v>190</v>
+      </c>
+      <c r="F43" s="7">
+        <v>180</v>
+      </c>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="B44">
+        <v>1.65</v>
+      </c>
+      <c r="C44">
+        <v>3.3</v>
+      </c>
+      <c r="D44" s="42">
+        <f>(C44-B44)/A44</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <v>0.1</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" s="42">
+        <f>(C49-B49)/A49</f>
+        <v>990</v>
+      </c>
+      <c r="F49" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="B50">
+        <v>0.1</v>
+      </c>
+      <c r="C50">
+        <v>14.4</v>
+      </c>
+      <c r="D50" s="42">
+        <f>(C50-B50)/A50</f>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="G55" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C57" s="42">
+        <f>B57/A57</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>14.4</v>
+      </c>
+      <c r="E57">
+        <v>3.3</v>
+      </c>
+      <c r="F57" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="44">
+        <f>A57*F57</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="H57" s="44">
+        <f>D57/G57</f>
+        <v>120000</v>
+      </c>
+      <c r="I57" s="44">
+        <f>H57*E57/D57/C57</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B58">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C58" s="42">
+        <f t="shared" ref="C58" si="10">B58/A58</f>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>14.4</v>
+      </c>
+      <c r="E58">
+        <v>3.3</v>
+      </c>
+      <c r="F58" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G58" s="44">
+        <f t="shared" ref="G58" si="11">A58*F58</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="H58" s="46">
+        <v>120000</v>
+      </c>
+      <c r="I58" s="44">
+        <f t="shared" ref="I58" si="12">H58*E58/D58/C58</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C60" s="42">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D60">
+        <v>14.4</v>
+      </c>
+      <c r="E60">
+        <v>3.3</v>
+      </c>
+      <c r="F60" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G60" s="44">
+        <f>A60*F60</f>
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="H60" s="44">
+        <f>D60/G60</f>
+        <v>160000.00000000003</v>
+      </c>
+      <c r="I60" s="44">
+        <f>H60*E60/D60/C60</f>
+        <v>47930.283224400875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C61" s="42">
+        <v>1.181</v>
+      </c>
+      <c r="D61">
+        <v>14.4</v>
+      </c>
+      <c r="E61">
+        <v>3.3</v>
+      </c>
+      <c r="F61" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G61" s="44">
+        <f>A61*F61</f>
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="H61" s="44">
+        <f>D61/G61</f>
+        <v>160000.00000000003</v>
+      </c>
+      <c r="I61" s="44">
+        <f>H61*E61/D61/C61</f>
+        <v>31047.135196161449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D62">
+        <v>14.4</v>
+      </c>
+      <c r="E62">
+        <v>3.3</v>
+      </c>
+      <c r="F62" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G62" s="44">
+        <f>A62*F62</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H62" s="46">
+        <v>100000</v>
+      </c>
+      <c r="I62" s="44">
+        <f>H62*E62/D62/C62</f>
+        <v>29956.427015250545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C63" s="42">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>14.4</v>
+      </c>
+      <c r="E63">
+        <v>3.3</v>
+      </c>
+      <c r="F63" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G63" s="44">
+        <f>A63*F63</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H63" s="46">
+        <v>100000</v>
+      </c>
+      <c r="I63" s="44">
+        <f>H63*E63/D63/C63</f>
+        <v>22916.666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C64" s="42">
+        <v>1.18</v>
+      </c>
+      <c r="D64">
+        <v>14.4</v>
+      </c>
+      <c r="E64">
+        <v>3.3</v>
+      </c>
+      <c r="F64" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="G64" s="44">
+        <f>A64*F64</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H64" s="46">
+        <v>100000</v>
+      </c>
+      <c r="I64" s="44">
+        <f>H64*E64/D64/C64</f>
+        <v>19420.903954802263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C70">
+        <v>1.0609999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="C71">
+        <v>1.181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="F72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>14.4</v>
+      </c>
+      <c r="C74" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D74" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F74" s="9">
+        <f>A74*D74/C74*B74</f>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B75">
+        <v>14.4</v>
+      </c>
+      <c r="C75" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D75" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" ref="F75:F79" si="13">A75*D75/C75*B75</f>
+        <v>2.4786000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>1.181</v>
+      </c>
+      <c r="B76">
+        <v>14.4</v>
+      </c>
+      <c r="C76" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D76" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="13"/>
+        <v>3.8264399999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D77" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="13"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D78" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="13"/>
+        <v>1.7212499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>1.181</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" s="44">
+        <v>120000</v>
+      </c>
+      <c r="D79" s="44">
+        <v>27000</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="13"/>
+        <v>2.6572499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="44"/>
+      <c r="D80" s="38"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>14.4</v>
+      </c>
+      <c r="C81" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D81" s="44">
+        <v>22000</v>
+      </c>
+      <c r="F81" s="9">
+        <f>A81*D81/C81*B81</f>
+        <v>3.1680000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B82">
+        <v>14.4</v>
+      </c>
+      <c r="C82" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D82" s="44">
+        <v>22000</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" ref="F82:F83" si="14">A82*D82/C82*B82</f>
+        <v>2.4235200000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>1.181</v>
+      </c>
+      <c r="B83">
+        <v>14.4</v>
+      </c>
+      <c r="C83" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D83" s="44">
+        <v>22000</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="14"/>
+        <v>3.7414079999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>14.4</v>
+      </c>
+      <c r="C85" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D85" s="44">
+        <v>22000</v>
+      </c>
+      <c r="F85" s="9">
+        <f>A85*D85/C85*B85</f>
+        <v>3.1680000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B86">
+        <v>14.4</v>
+      </c>
+      <c r="C86" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D86" s="44">
+        <v>30100</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" ref="F86:F87" si="15">A86*D86/C86*B86</f>
+        <v>3.3158159999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>1.181</v>
+      </c>
+      <c r="B87">
+        <v>14.4</v>
+      </c>
+      <c r="C87" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D87" s="44">
+        <v>19100</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="15"/>
+        <v>3.2482224000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E816928-42A4-B846-8567-42261D34AB94}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>220</v>
+      </c>
+      <c r="B6">
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>270</v>
+      </c>
+      <c r="B7">
+        <v>112.99999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>330</v>
+      </c>
+      <c r="B8">
+        <v>114.99999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>390</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>470</v>
+      </c>
+      <c r="B10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>560</v>
+      </c>
+      <c r="B11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>680</v>
+      </c>
+      <c r="B12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>820</v>
+      </c>
+      <c r="B13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32">
+        <v>204.99999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36">
+        <v>225.99999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <v>231.99999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39">
+        <v>243.00000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40">
+        <v>249.00000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41">
+        <v>254.99999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60">
+        <v>401.99999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66">
+        <v>463.99999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70">
+        <v>511.00000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <v>844.99999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93">
+        <v>886.99999999999989</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96">
+        <v>952.99999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2BD0D-CC3C-9D49-98D7-7EF532213FDA}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="E1" s="49">
+        <v>200</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="49">
+        <v>100</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="49">
+        <v>50</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="49">
+        <v>20</v>
+      </c>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="51">
+        <v>1</v>
+      </c>
+      <c r="F2" s="52">
+        <v>2</v>
+      </c>
+      <c r="G2" s="51">
+        <v>1</v>
+      </c>
+      <c r="H2" s="52">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51">
+        <v>1</v>
+      </c>
+      <c r="J2" s="52">
+        <v>3</v>
+      </c>
+      <c r="K2" s="51">
+        <v>1</v>
+      </c>
+      <c r="L2" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="44">
+        <v>2.9E-4</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="44">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="44">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="E5" s="53">
+        <f>$B5*$E$1*E$2</f>
+        <v>0.126</v>
+      </c>
+      <c r="F5" s="53">
+        <f>$B5*$E$1*F$2</f>
+        <v>0.252</v>
+      </c>
+      <c r="G5" s="53">
+        <f>$B5*$G$1*G$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="H5" s="53">
+        <f>$B5*$G$1*H$2</f>
+        <v>0.189</v>
+      </c>
+      <c r="I5" s="53">
+        <f>$B5*$I$1*I$2</f>
+        <v>3.15E-2</v>
+      </c>
+      <c r="J5" s="53">
+        <f>$B5*$I$1*J$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="K5" s="53">
+        <f>$B5*$I$1*K$2</f>
+        <v>3.15E-2</v>
+      </c>
+      <c r="L5" s="53">
+        <f>$B5*$I$1*L$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="E6" s="53">
+        <f t="shared" ref="E6:F9" si="0">$B6*$E$1*E$2</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" si="0"/>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" ref="G6:H9" si="1">$B6*$G$1*G$2</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H6" s="53">
+        <f t="shared" si="1"/>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="I6" s="53">
+        <f t="shared" ref="I6:L9" si="2">$B6*$I$1*I$2</f>
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="J6" s="53">
+        <f t="shared" si="2"/>
+        <v>0.14550000000000002</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" si="2"/>
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="L6" s="53">
+        <f t="shared" si="2"/>
+        <v>0.14550000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="E7" s="53">
+        <f t="shared" si="0"/>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="F7" s="53">
+        <f t="shared" si="0"/>
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="1"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="H7" s="53">
+        <f t="shared" si="1"/>
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="I7" s="53">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="J7" s="53">
+        <f t="shared" si="2"/>
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="K7" s="53">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="L7" s="53">
+        <f t="shared" si="2"/>
+        <v>0.21600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="53">
+        <f t="shared" si="0"/>
+        <v>0.504</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="0"/>
+        <v>1.008</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="H8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I8" s="53">
+        <f t="shared" si="2"/>
+        <v>0.126</v>
+      </c>
+      <c r="J8" s="53">
+        <f t="shared" si="2"/>
+        <v>0.378</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="2"/>
+        <v>0.126</v>
+      </c>
+      <c r="L8" s="53">
+        <f t="shared" si="2"/>
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="44">
+        <v>3.64E-3</v>
+      </c>
+      <c r="E9" s="53">
+        <f t="shared" si="0"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>1.456</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="1"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" si="2"/>
+        <v>0.182</v>
+      </c>
+      <c r="J9" s="53">
+        <f t="shared" si="2"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="2"/>
+        <v>0.182</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="2"/>
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="B12" s="7">
+        <f>12*A12</f>
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="B13" s="33">
+        <f t="shared" ref="B13:B14" si="3">12*A13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="55">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E5:L9">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>E5&lt;=$B$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>E5&gt;$B$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>E5&gt;$B$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CamperVan.xlsx
+++ b/CamperVan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/Campervan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FBC8C-AA4E-A84A-A1FF-3A43CF3966A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB07540-5D3D-A641-8CFB-E60E766882A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="8" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="10" xr2:uid="{32DB9825-7707-5644-AF59-E2F85CFFFB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Resistor" sheetId="11" r:id="rId8"/>
     <sheet name="Cable" sheetId="12" r:id="rId9"/>
     <sheet name="Tanks" sheetId="10" r:id="rId10"/>
+    <sheet name="Fans" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="336">
   <si>
     <t>Item</t>
   </si>
@@ -990,14 +991,102 @@
   <si>
     <t>Voltage Drop</t>
   </si>
+  <si>
+    <t>m^3/min</t>
+  </si>
+  <si>
+    <t>50A DC-DC convertor</t>
+  </si>
+  <si>
+    <t>Wattage</t>
+  </si>
+  <si>
+    <t>Q' = W/20deltaT</t>
+  </si>
+  <si>
+    <t>delta T</t>
+  </si>
+  <si>
+    <t>Q'</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q (2*Q')</t>
+  </si>
+  <si>
+    <t>200Ah Battery</t>
+  </si>
+  <si>
+    <t>Q (1.5*Q')</t>
+  </si>
+  <si>
+    <t>Output Power</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Input Power</t>
+  </si>
+  <si>
+    <t>Power Dissipation</t>
+  </si>
+  <si>
+    <t>Q' (m3/min)</t>
+  </si>
+  <si>
+    <t>Total System</t>
+  </si>
+  <si>
+    <t>2x DC-DC Convertor</t>
+  </si>
+  <si>
+    <t>Battery @ 200A</t>
+  </si>
+  <si>
+    <t>Battery @ 50A</t>
+  </si>
+  <si>
+    <t>9GA0412P3K01</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>40mm</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>9GAX0412P3S001</t>
+  </si>
+  <si>
+    <t>9S0612S4011</t>
+  </si>
+  <si>
+    <t>9S0612S409</t>
+  </si>
+  <si>
+    <t>60mm</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>9GA0612P7G01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1243,7 +1332,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1306,6 +1395,10 @@
     <xf numFmtId="48" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1315,7 +1408,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{123B9C09-DBF4-C94E-B00F-92A47902B458}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1343,36 +1436,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3051,6 +3114,533 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A580BCD-6644-FB4A-B224-B316B7ADE497}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>720</v>
+      </c>
+      <c r="B5" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="C5" s="8">
+        <f>A5/B5</f>
+        <v>742.26804123711338</v>
+      </c>
+      <c r="D5" s="8">
+        <f xml:space="preserve"> CEILING(C5-A5,1)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <f>D$5</f>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="57">
+        <f>A8/20/B8</f>
+        <v>3.833333333333333E-2</v>
+      </c>
+      <c r="D8" s="57">
+        <f>C8*2</f>
+        <v>7.6666666666666661E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <f>D5</f>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" s="57">
+        <f>A9/20/B9</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="D9" s="57">
+        <f>C9*2</f>
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="57">
+        <f>A10/20/B10</f>
+        <v>5.4761904761904755E-2</v>
+      </c>
+      <c r="D10" s="57">
+        <f>C10*2</f>
+        <v>0.10952380952380951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
+        <v>2480</v>
+      </c>
+      <c r="B14" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="8">
+        <f>A14/B14</f>
+        <v>2755.5555555555557</v>
+      </c>
+      <c r="D14" s="8">
+        <f xml:space="preserve"> CEILING(C14-A14,1)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <f>50*12.8</f>
+        <v>640</v>
+      </c>
+      <c r="B15" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="8">
+        <f>A15/B15</f>
+        <v>711.11111111111109</v>
+      </c>
+      <c r="D15" s="8">
+        <f xml:space="preserve"> CEILING(C15-A15,1)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <f>D$14</f>
+        <v>276</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="57">
+        <f>A18/20/B18</f>
+        <v>0.46</v>
+      </c>
+      <c r="D18" s="9">
+        <f>C18*1.5</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="E18" s="9">
+        <f>C18*2</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <f t="shared" ref="A19:A20" si="0">D$14</f>
+        <v>276</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" s="57">
+        <f>A19/20/B19</f>
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="D19" s="9">
+        <f>C19*1.5</f>
+        <v>0.51750000000000007</v>
+      </c>
+      <c r="E19" s="9">
+        <f>C19*2</f>
+        <v>0.69000000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" s="57">
+        <f>A20/20/B20</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D20" s="9">
+        <f>C20*1.5</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="E20" s="9">
+        <f>C20*2</f>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23">
+        <f>A8*2</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="8">
+        <f>D14</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="8">
+        <f>D15</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26">
+        <f>SUM(B23:B25)</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8">
+        <f>B26</f>
+        <v>394</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29" s="57">
+        <f>A29/20/B29</f>
+        <v>0.65666666666666662</v>
+      </c>
+      <c r="D29" s="9">
+        <f>C29*1.5</f>
+        <v>0.98499999999999988</v>
+      </c>
+      <c r="E29" s="9">
+        <f>C29*2</f>
+        <v>1.3133333333333332</v>
+      </c>
+      <c r="F29" s="9">
+        <f>$E29/F28</f>
+        <v>0.65666666666666662</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" ref="G29:H29" si="1">$E29/G28</f>
+        <v>0.43777777777777777</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32833333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33">
+        <v>0.81</v>
+      </c>
+      <c r="D33">
+        <v>35.5</v>
+      </c>
+      <c r="E33">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>C33*F33</f>
+        <v>1.62</v>
+      </c>
+      <c r="H33">
+        <f>D33*F33</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34">
+        <v>0.9</v>
+      </c>
+      <c r="D34">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>C34*F34</f>
+        <v>1.8</v>
+      </c>
+      <c r="H34">
+        <f>D34*F34</f>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35">
+        <v>0.7</v>
+      </c>
+      <c r="D35">
+        <v>26.9</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f>C35*F35</f>
+        <v>1.4</v>
+      </c>
+      <c r="H35">
+        <f>D35*F35</f>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C36">
+        <v>0.74</v>
+      </c>
+      <c r="D36">
+        <v>30.9</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f>C36*F36</f>
+        <v>1.48</v>
+      </c>
+      <c r="H36">
+        <f>D36*F36</f>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37">
+        <v>0.68</v>
+      </c>
+      <c r="D37">
+        <v>31.55</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f>C37*F37</f>
+        <v>1.36</v>
+      </c>
+      <c r="H37">
+        <f>D37*F37</f>
+        <v>63.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92100D95-D95B-A341-A18C-0ED78105334C}">
   <dimension ref="A1:G8"/>
@@ -6563,7 +7153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2BD0D-CC3C-9D49-98D7-7EF532213FDA}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6887,14 +7477,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5:L9">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>E5&lt;=$B$12</formula>
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>E5&gt;$B$13</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>E5&gt;$B$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>E5&gt;$B$13</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>E5&lt;=$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
